--- a/Results/noflyzones.xlsx
+++ b/Results/noflyzones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="mapa 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,102 +22,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">Estrategia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media Qmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media SDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media Manobras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parametros utilizados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nc Drone Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant Strategy type A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Strategy Normal</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC Drone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS</t>
   </si>
   <si>
     <t xml:space="preserve">Time threshold = 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrant  type A + Time(normal)</t>
+    <t xml:space="preserve">QUAD-TS</t>
   </si>
   <si>
     <t xml:space="preserve">Threshold  = 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaporation Strategy Normal</t>
+    <t xml:space="preserve">ES</t>
   </si>
   <si>
     <t xml:space="preserve">Evap time =100; Evap factor = 0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaporation Normal + Time Normal</t>
+    <t xml:space="preserve">ES-TS</t>
   </si>
   <si>
     <t xml:space="preserve">Evap time =100; Evap factor = 0.1; Time threshold = 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrant  type A + Evap (normal)</t>
+    <t xml:space="preserve">QUAD-ES</t>
   </si>
   <si>
     <t xml:space="preserve">Evap time = 100; Evap factor = 0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrant  type A + Evap + time (normal)</t>
+    <t xml:space="preserve">QUAD-ES-TS</t>
   </si>
   <si>
     <t xml:space="preserve">Evap time = 100; Evap factor = 0.1; Threshold  = 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Genetico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Strategy </t>
+    <t xml:space="preserve">Genetic</t>
   </si>
   <si>
     <t xml:space="preserve">Threshold  = 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrant  type A + Time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Threshold  = 18</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaporation Strategy </t>
-  </si>
-  <si>
     <t xml:space="preserve">Evap time = 1; Evap factor = 0.37</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaporation + Time </t>
-  </si>
-  <si>
     <t xml:space="preserve">Evap time = 47 Evap factor = 0.69; Threshold  = 190 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrant  type A + Evap + Time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evap time = 1; Evap factor = 0.83;Threshold = 881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type A + Evaporation</t>
   </si>
   <si>
     <t xml:space="preserve">Evap time = 1; Evap factor = 0.83</t>
@@ -161,7 +143,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,11 +173,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -274,354 +251,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'mapa 1'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Media Manobras</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'mapa 1'!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Nc Drone Normal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Quadrant Strategy type A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Time Strategy Normal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quadrant  type A + Time(normal)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Evaporation Strategy Normal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Evaporation Normal + Time Normal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Quadrant  type A + Evap (normal)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Quadrant  type A + Evap + time (normal)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'mapa 1'!$F$2:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7817.73333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8412.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7741.43333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8378.43333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13363.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13331.6333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13347</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13302.5666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="85324428"/>
-        <c:axId val="97726930"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="85324428"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="97726930"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97726930"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85324428"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>686880</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5682600</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="10039680" y="4158000"/>
-        <a:ext cx="5754600" cy="3228120"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,8 +261,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B19:G19 B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -914,7 +544,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>681.973459786412</v>
@@ -935,12 +565,12 @@
         <v>231.198814776423</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>679.608116495474</v>
@@ -961,12 +591,12 @@
         <v>148.304366279187</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>648.337687567612</v>
@@ -987,12 +617,12 @@
         <v>278.354163306183</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>650.346910452914</v>
@@ -1013,12 +643,12 @@
         <v>240.57501996235</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>638.50310258498</v>
@@ -1039,12 +669,12 @@
         <v>188.301436623523</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>638.298234078137</v>
@@ -1065,7 +695,7 @@
         <v>168.844089137825</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1082,7 +712,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1091,10 +720,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="B19:G19 B14"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1375,7 +1004,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>683.083053946819</v>
@@ -1396,12 +1025,12 @@
         <v>238.288919581676</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>673.680786031581</v>
@@ -1422,12 +1051,12 @@
         <v>132.994425602652</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>644.536607898239</v>
@@ -1448,12 +1077,12 @@
         <v>348.816766772484</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>651.518116450306</v>
@@ -1474,12 +1103,12 @@
         <v>300.730224314238</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>631.824167855627</v>
@@ -1500,12 +1129,12 @@
         <v>363.537308556692</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>630.499845144583</v>
@@ -1526,9 +1155,17 @@
         <v>425.414145747763</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1547,8 +1184,8 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19:G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1828,7 +1465,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>683.759399288893</v>
@@ -1849,12 +1486,12 @@
         <v>247.927399458589</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>665.095773048703</v>
@@ -1875,12 +1512,12 @@
         <v>123.744898884762</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>643.503741442002</v>
@@ -1901,12 +1538,12 @@
         <v>381.942887046633</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>647.71917811678</v>
@@ -1927,12 +1564,12 @@
         <v>316.097969681524</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>627.888238288662</v>
@@ -1953,12 +1590,12 @@
         <v>250.862594619665</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>623.263378630876</v>
@@ -1979,7 +1616,7 @@
         <v>304.44349833452</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
